--- a/Code/Results/Cases/Case_2_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_119/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00406876258812</v>
+        <v>1.03019297354432</v>
       </c>
       <c r="D2">
-        <v>1.020639458018769</v>
+        <v>1.033745539711229</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9811391269163519</v>
+        <v>1.028773387736611</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045387836988211</v>
+        <v>1.035870631516463</v>
       </c>
       <c r="J2">
-        <v>1.026128454997469</v>
+        <v>1.035335573056189</v>
       </c>
       <c r="K2">
-        <v>1.031818550193696</v>
+        <v>1.036547004498317</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>0.9928676313203032</v>
+        <v>1.031589229717407</v>
       </c>
       <c r="N2">
-        <v>1.012440253795467</v>
+        <v>1.015750620056057</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009322161284499</v>
+        <v>1.031224342826947</v>
       </c>
       <c r="D3">
-        <v>1.024509159919344</v>
+        <v>1.034513373094421</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>0.9890831955213506</v>
+        <v>1.030437785616165</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047326162849736</v>
+        <v>1.036169142026881</v>
       </c>
       <c r="J3">
-        <v>1.029561880979956</v>
+        <v>1.036007874898217</v>
       </c>
       <c r="K3">
-        <v>1.034837759060626</v>
+        <v>1.037123991942281</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>0.9998576912347017</v>
+        <v>1.033059326586002</v>
       </c>
       <c r="N3">
-        <v>1.013596883129305</v>
+        <v>1.015975596372707</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012630847995963</v>
+        <v>1.03189086076553</v>
       </c>
       <c r="D4">
-        <v>1.026948062467562</v>
+        <v>1.035009457587172</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>0.9940774323375655</v>
+        <v>1.031513817662645</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048533688430305</v>
+        <v>1.03636048219687</v>
       </c>
       <c r="J4">
-        <v>1.031716882452553</v>
+        <v>1.036441490726724</v>
       </c>
       <c r="K4">
-        <v>1.036731773449078</v>
+        <v>1.037495929848946</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.004247867051131</v>
+        <v>1.034009180647991</v>
       </c>
       <c r="N4">
-        <v>1.014322705195566</v>
+        <v>1.016120636485677</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014001117327819</v>
+        <v>1.032170864091072</v>
       </c>
       <c r="D5">
-        <v>1.027958467020653</v>
+        <v>1.035217831552289</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>0.9961439878162682</v>
+        <v>1.031965963360658</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049030560960909</v>
+        <v>1.036440487485011</v>
       </c>
       <c r="J5">
-        <v>1.03260756798611</v>
+        <v>1.036623447060057</v>
       </c>
       <c r="K5">
-        <v>1.037514329753094</v>
+        <v>1.037651955630296</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.006063400582975</v>
+        <v>1.034408171867434</v>
       </c>
       <c r="N5">
-        <v>1.014622656158973</v>
+        <v>1.01618148378798</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014230005039289</v>
+        <v>1.032217866161842</v>
       </c>
       <c r="D6">
-        <v>1.028127262468522</v>
+        <v>1.035252807928331</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>0.9964890890970249</v>
+        <v>1.032041868050353</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04911336774343</v>
+        <v>1.036453895286881</v>
       </c>
       <c r="J6">
-        <v>1.032756240990045</v>
+        <v>1.036653978680802</v>
       </c>
       <c r="K6">
-        <v>1.037644937967763</v>
+        <v>1.037678133317903</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.006366518958655</v>
+        <v>1.034475145250952</v>
       </c>
       <c r="N6">
-        <v>1.014672721434784</v>
+        <v>1.016191692849788</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012649237691163</v>
+        <v>1.031894602970337</v>
       </c>
       <c r="D7">
-        <v>1.02696162128582</v>
+        <v>1.035012242596425</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>0.9941051730368587</v>
+        <v>1.031519860102985</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04854036946984</v>
+        <v>1.036361552936439</v>
       </c>
       <c r="J7">
-        <v>1.031728843001939</v>
+        <v>1.036443923353729</v>
       </c>
       <c r="K7">
-        <v>1.036742283044567</v>
+        <v>1.037498015995683</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.004272242397653</v>
+        <v>1.034014513266112</v>
       </c>
       <c r="N7">
-        <v>1.014326733242245</v>
+        <v>1.016121450031016</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005863555174154</v>
+        <v>1.030541706165952</v>
       </c>
       <c r="D8">
-        <v>1.021961126950769</v>
+        <v>1.034005189425485</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>0.9838553447600794</v>
+        <v>1.029336079209632</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046052829248529</v>
+        <v>1.035971890972602</v>
       </c>
       <c r="J8">
-        <v>1.027303024723557</v>
+        <v>1.035563073091403</v>
       </c>
       <c r="K8">
-        <v>1.032851615966323</v>
+        <v>1.036742292991845</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>0.9952585396623544</v>
+        <v>1.032086349297817</v>
       </c>
       <c r="N8">
-        <v>1.012835961058299</v>
+        <v>1.015826762806938</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9931636906554443</v>
+        <v>1.028151154290647</v>
       </c>
       <c r="D9">
-        <v>1.012618798415009</v>
+        <v>1.032224813075779</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9645775250304867</v>
+        <v>1.025480384780415</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041291653748077</v>
+        <v>1.035271317681589</v>
       </c>
       <c r="J9">
-        <v>1.018960187943074</v>
+        <v>1.034000051172794</v>
       </c>
       <c r="K9">
-        <v>1.025510409052187</v>
+        <v>1.035399755379935</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9782726991850234</v>
+        <v>1.028677665143775</v>
       </c>
       <c r="N9">
-        <v>1.010024930576132</v>
+        <v>1.015303372448707</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9841225006188293</v>
+        <v>1.026552905933566</v>
       </c>
       <c r="D10">
-        <v>1.005983229906093</v>
+        <v>1.031033927091402</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9507547498343738</v>
+        <v>1.022904313680585</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037832239748635</v>
+        <v>1.034794853115983</v>
       </c>
       <c r="J10">
-        <v>1.012980542773304</v>
+        <v>1.032950648107623</v>
       </c>
       <c r="K10">
-        <v>1.020245289125785</v>
+        <v>1.034497363199871</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9660739543074243</v>
+        <v>1.026397363510594</v>
       </c>
       <c r="N10">
-        <v>1.008009963256322</v>
+        <v>1.014951651612078</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9800519634162125</v>
+        <v>1.025859739087017</v>
       </c>
       <c r="D11">
-        <v>1.003000402314676</v>
+        <v>1.030517305705898</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9444989064721102</v>
+        <v>1.021787403941967</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036258558188343</v>
+        <v>1.034586295091216</v>
       </c>
       <c r="J11">
-        <v>1.010278812576718</v>
+        <v>1.032494471102116</v>
       </c>
       <c r="K11">
-        <v>1.017865956398908</v>
+        <v>1.034104854237934</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9605493056592734</v>
+        <v>1.025408008195592</v>
       </c>
       <c r="N11">
-        <v>1.007099609093694</v>
+        <v>1.014798683387979</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9785147309200983</v>
+        <v>1.025602095949878</v>
       </c>
       <c r="D12">
-        <v>1.001874731030894</v>
+        <v>1.030325264044924</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9421306059591406</v>
+        <v>1.021372305748718</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035661863090178</v>
+        <v>1.034508488991242</v>
       </c>
       <c r="J12">
-        <v>1.009257065521507</v>
+        <v>1.032324757494965</v>
       </c>
       <c r="K12">
-        <v>1.016966102074639</v>
+        <v>1.033958791972111</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9584573250142431</v>
+        <v>1.025040213082487</v>
       </c>
       <c r="N12">
-        <v>1.006755345380047</v>
+        <v>1.014741762801651</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9788456476992734</v>
+        <v>1.025657369017526</v>
       </c>
       <c r="D13">
-        <v>1.002117014748735</v>
+        <v>1.030366464236688</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9426407022025581</v>
+        <v>1.021461356203338</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035790420029917</v>
+        <v>1.03452519399115</v>
       </c>
       <c r="J13">
-        <v>1.009477080107185</v>
+        <v>1.03236117385119</v>
       </c>
       <c r="K13">
-        <v>1.017159870172184</v>
+        <v>1.033990134928134</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.958907926916685</v>
+        <v>1.025119120300309</v>
       </c>
       <c r="N13">
-        <v>1.006829475409049</v>
+        <v>1.014753977057866</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9799254220527283</v>
+        <v>1.025838445710342</v>
       </c>
       <c r="D14">
-        <v>1.002907723142723</v>
+        <v>1.030501434457336</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9443040766737365</v>
+        <v>1.02175309650736</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03620948808825</v>
+        <v>1.034579870522881</v>
       </c>
       <c r="J14">
-        <v>1.010194734083475</v>
+        <v>1.032480448024454</v>
       </c>
       <c r="K14">
-        <v>1.017791908782318</v>
+        <v>1.034092786139911</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9603772169686349</v>
+        <v>1.025377612398315</v>
       </c>
       <c r="N14">
-        <v>1.007071279611608</v>
+        <v>1.014793980386111</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9805873006905723</v>
+        <v>1.025949990417238</v>
       </c>
       <c r="D15">
-        <v>1.003392517168531</v>
+        <v>1.030584574749766</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9453228989233006</v>
+        <v>1.021932816807768</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036466053525661</v>
+        <v>1.034613513672997</v>
       </c>
       <c r="J15">
-        <v>1.010634450598315</v>
+        <v>1.032553901054713</v>
       </c>
       <c r="K15">
-        <v>1.018179164375952</v>
+        <v>1.034155997520498</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9612770998099462</v>
+        <v>1.025536837304604</v>
       </c>
       <c r="N15">
-        <v>1.007219438799348</v>
+        <v>1.014818614305424</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9843892147438066</v>
+        <v>1.026598885423888</v>
       </c>
       <c r="D16">
-        <v>1.006178777864848</v>
+        <v>1.03106819322015</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9511639040058476</v>
+        <v>1.022978407838022</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037935019538102</v>
+        <v>1.034808647027964</v>
       </c>
       <c r="J16">
-        <v>1.013157369705824</v>
+        <v>1.032980885435185</v>
       </c>
       <c r="K16">
-        <v>1.020401008957298</v>
+        <v>1.034523375370046</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9664352135603431</v>
+        <v>1.026462981535111</v>
       </c>
       <c r="N16">
-        <v>1.008069547261581</v>
+        <v>1.014961789425708</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.986731130210566</v>
+        <v>1.027005619818844</v>
       </c>
       <c r="D17">
-        <v>1.007896346594223</v>
+        <v>1.031371296434388</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9547527544586847</v>
+        <v>1.023633883345874</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038835663320491</v>
+        <v>1.034930447102206</v>
       </c>
       <c r="J17">
-        <v>1.014708937348468</v>
+        <v>1.03324824391874</v>
       </c>
       <c r="K17">
-        <v>1.021767326447061</v>
+        <v>1.034753347636896</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9696035386397758</v>
+        <v>1.027043393973066</v>
       </c>
       <c r="N17">
-        <v>1.00859237374527</v>
+        <v>1.015051419387944</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9880822497336418</v>
+        <v>1.027242753729312</v>
       </c>
       <c r="D18">
-        <v>1.008887694050134</v>
+        <v>1.031547998881024</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9568202654346829</v>
+        <v>1.024016071491747</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039353743893927</v>
+        <v>1.035001274410683</v>
       </c>
       <c r="J18">
-        <v>1.015603181048733</v>
+        <v>1.033404018126106</v>
       </c>
       <c r="K18">
-        <v>1.022554757768853</v>
+        <v>1.034887316159787</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9714284252254588</v>
+        <v>1.027381749263275</v>
       </c>
       <c r="N18">
-        <v>1.008893708190692</v>
+        <v>1.015103634348491</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9885404760186</v>
+        <v>1.027323592130589</v>
       </c>
       <c r="D19">
-        <v>1.009223975852143</v>
+        <v>1.031608234192282</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9575209683941235</v>
+        <v>1.024146364384995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039529188589136</v>
+        <v>1.035025387980316</v>
       </c>
       <c r="J19">
-        <v>1.015906307137971</v>
+        <v>1.033457104079454</v>
       </c>
       <c r="K19">
-        <v>1.022821668781239</v>
+        <v>1.034932967103756</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9720468363059958</v>
+        <v>1.027497087796886</v>
       </c>
       <c r="N19">
-        <v>1.008995853438762</v>
+        <v>1.015121427347968</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9864814168049524</v>
+        <v>1.02696199219303</v>
       </c>
       <c r="D20">
-        <v>1.007713160456042</v>
+        <v>1.031338785907709</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9543704008736483</v>
+        <v>1.023563571538926</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038739787998209</v>
+        <v>1.034917401519181</v>
       </c>
       <c r="J20">
-        <v>1.014543590647349</v>
+        <v>1.033219576633701</v>
       </c>
       <c r="K20">
-        <v>1.021621725707687</v>
+        <v>1.03472869142564</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9692660247004441</v>
+        <v>1.026981140869681</v>
       </c>
       <c r="N20">
-        <v>1.008536656934503</v>
+        <v>1.015041809635633</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9796081686528655</v>
+        <v>1.025785127854531</v>
       </c>
       <c r="D21">
-        <v>1.002675379074694</v>
+        <v>1.030461693117489</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9438155200555229</v>
+        <v>1.021667192636912</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03608642539861</v>
+        <v>1.034563778995392</v>
       </c>
       <c r="J21">
-        <v>1.009983916629184</v>
+        <v>1.032445332199034</v>
       </c>
       <c r="K21">
-        <v>1.017606242233333</v>
+        <v>1.034062565297802</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9599456785033301</v>
+        <v>1.025301501393028</v>
       </c>
       <c r="N21">
-        <v>1.007000246884037</v>
+        <v>1.014782203206352</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9751394828360728</v>
+        <v>1.025044201029885</v>
       </c>
       <c r="D22">
-        <v>0.9994046937194537</v>
+        <v>1.02990938774961</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9369188277350773</v>
+        <v>1.020473538866208</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034347341166259</v>
+        <v>1.034339484324153</v>
       </c>
       <c r="J22">
-        <v>1.007010982033761</v>
+        <v>1.031956975759524</v>
       </c>
       <c r="K22">
-        <v>1.014987952975216</v>
+        <v>1.03364220007288</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9538528183540121</v>
+        <v>1.024243679366145</v>
       </c>
       <c r="N22">
-        <v>1.00599859836017</v>
+        <v>1.014618391502507</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9775230539363636</v>
+        <v>1.025437074656841</v>
       </c>
       <c r="D23">
-        <v>1.001148788733968</v>
+        <v>1.03020225554458</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9406010465096898</v>
+        <v>1.021106446190878</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035276260598582</v>
+        <v>1.034458573110444</v>
       </c>
       <c r="J23">
-        <v>1.008597523268589</v>
+        <v>1.032216011107096</v>
       </c>
       <c r="K23">
-        <v>1.016385237480796</v>
+        <v>1.033865190600472</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9571060982048536</v>
+        <v>1.024804621117196</v>
       </c>
       <c r="N23">
-        <v>1.006533127351936</v>
+        <v>1.01470528701378</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9865942973900412</v>
+        <v>1.026981705970298</v>
       </c>
       <c r="D24">
-        <v>1.007795966684787</v>
+        <v>1.03135347630081</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9545432494515665</v>
+        <v>1.023595342847134</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038783132275328</v>
+        <v>1.034923296925616</v>
       </c>
       <c r="J24">
-        <v>1.014618336858013</v>
+        <v>1.033232530675125</v>
       </c>
       <c r="K24">
-        <v>1.021687545747243</v>
+        <v>1.034739833032299</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9694186039877548</v>
+        <v>1.027009270950861</v>
       </c>
       <c r="N24">
-        <v>1.008561844122436</v>
+        <v>1.015046152068735</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9965422097828353</v>
+        <v>1.028769961354959</v>
       </c>
       <c r="D25">
-        <v>1.015101806794166</v>
+        <v>1.032685778364954</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9697201445333484</v>
+        <v>1.026478125643688</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042570329612125</v>
+        <v>1.035454088999704</v>
       </c>
       <c r="J25">
-        <v>1.021186505351848</v>
+        <v>1.034405425204348</v>
       </c>
       <c r="K25">
-        <v>1.027470124274229</v>
+        <v>1.035748127033177</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>0.982807436853963</v>
+        <v>1.029560242027048</v>
       </c>
       <c r="N25">
-        <v>1.010775126382364</v>
+        <v>1.015439171773438</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_119/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_119/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03019297354432</v>
+        <v>1.004068762588119</v>
       </c>
       <c r="D2">
-        <v>1.033745539711229</v>
+        <v>1.020639458018769</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.028773387736611</v>
+        <v>0.9811391269163513</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035870631516463</v>
+        <v>1.045387836988211</v>
       </c>
       <c r="J2">
-        <v>1.035335573056189</v>
+        <v>1.026128454997468</v>
       </c>
       <c r="K2">
-        <v>1.036547004498317</v>
+        <v>1.031818550193695</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.031589229717407</v>
+        <v>0.9928676313203025</v>
       </c>
       <c r="N2">
-        <v>1.015750620056057</v>
+        <v>1.012440253795467</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031224342826947</v>
+        <v>1.009322161284498</v>
       </c>
       <c r="D3">
-        <v>1.034513373094421</v>
+        <v>1.024509159919344</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.030437785616165</v>
+        <v>0.9890831955213502</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036169142026881</v>
+        <v>1.047326162849735</v>
       </c>
       <c r="J3">
-        <v>1.036007874898217</v>
+        <v>1.029561880979955</v>
       </c>
       <c r="K3">
-        <v>1.037123991942281</v>
+        <v>1.034837759060625</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.033059326586002</v>
+        <v>0.9998576912347013</v>
       </c>
       <c r="N3">
-        <v>1.015975596372707</v>
+        <v>1.013596883129305</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03189086076553</v>
+        <v>1.012630847995963</v>
       </c>
       <c r="D4">
-        <v>1.035009457587172</v>
+        <v>1.026948062467563</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.031513817662645</v>
+        <v>0.9940774323375662</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03636048219687</v>
+        <v>1.048533688430305</v>
       </c>
       <c r="J4">
-        <v>1.036441490726724</v>
+        <v>1.031716882452553</v>
       </c>
       <c r="K4">
-        <v>1.037495929848946</v>
+        <v>1.036731773449079</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.034009180647991</v>
+        <v>1.004247867051131</v>
       </c>
       <c r="N4">
-        <v>1.016120636485677</v>
+        <v>1.014322705195567</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032170864091072</v>
+        <v>1.01400111732782</v>
       </c>
       <c r="D5">
-        <v>1.035217831552289</v>
+        <v>1.027958467020653</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.031965963360658</v>
+        <v>0.9961439878162694</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036440487485011</v>
+        <v>1.049030560960909</v>
       </c>
       <c r="J5">
-        <v>1.036623447060057</v>
+        <v>1.032607567986111</v>
       </c>
       <c r="K5">
-        <v>1.037651955630296</v>
+        <v>1.037514329753095</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.034408171867434</v>
+        <v>1.006063400582976</v>
       </c>
       <c r="N5">
-        <v>1.01618148378798</v>
+        <v>1.014622656158973</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032217866161842</v>
+        <v>1.014230005039289</v>
       </c>
       <c r="D6">
-        <v>1.035252807928331</v>
+        <v>1.028127262468522</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.032041868050353</v>
+        <v>0.9964890890970254</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036453895286881</v>
+        <v>1.049113367743431</v>
       </c>
       <c r="J6">
-        <v>1.036653978680802</v>
+        <v>1.032756240990046</v>
       </c>
       <c r="K6">
-        <v>1.037678133317903</v>
+        <v>1.037644937967763</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.034475145250952</v>
+        <v>1.006366518958655</v>
       </c>
       <c r="N6">
-        <v>1.016191692849788</v>
+        <v>1.014672721434784</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031894602970337</v>
+        <v>1.012649237691163</v>
       </c>
       <c r="D7">
-        <v>1.035012242596425</v>
+        <v>1.02696162128582</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.031519860102985</v>
+        <v>0.9941051730368581</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036361552936439</v>
+        <v>1.04854036946984</v>
       </c>
       <c r="J7">
-        <v>1.036443923353729</v>
+        <v>1.031728843001939</v>
       </c>
       <c r="K7">
-        <v>1.037498015995683</v>
+        <v>1.036742283044567</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.034014513266112</v>
+        <v>1.004272242397652</v>
       </c>
       <c r="N7">
-        <v>1.016121450031016</v>
+        <v>1.014326733242244</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030541706165952</v>
+        <v>1.005863555174154</v>
       </c>
       <c r="D8">
-        <v>1.034005189425485</v>
+        <v>1.021961126950769</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.029336079209632</v>
+        <v>0.9838553447600795</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035971890972602</v>
+        <v>1.046052829248529</v>
       </c>
       <c r="J8">
-        <v>1.035563073091403</v>
+        <v>1.027303024723557</v>
       </c>
       <c r="K8">
-        <v>1.036742292991845</v>
+        <v>1.032851615966323</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.032086349297817</v>
+        <v>0.9952585396623543</v>
       </c>
       <c r="N8">
-        <v>1.015826762806938</v>
+        <v>1.012835961058299</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028151154290647</v>
+        <v>0.9931636906554456</v>
       </c>
       <c r="D9">
-        <v>1.032224813075779</v>
+        <v>1.01261879841501</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.025480384780415</v>
+        <v>0.9645775250304884</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035271317681589</v>
+        <v>1.041291653748077</v>
       </c>
       <c r="J9">
-        <v>1.034000051172794</v>
+        <v>1.018960187943076</v>
       </c>
       <c r="K9">
-        <v>1.035399755379935</v>
+        <v>1.025510409052188</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.028677665143775</v>
+        <v>0.9782726991850249</v>
       </c>
       <c r="N9">
-        <v>1.015303372448707</v>
+        <v>1.010024930576133</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026552905933566</v>
+        <v>0.9841225006188282</v>
       </c>
       <c r="D10">
-        <v>1.031033927091402</v>
+        <v>1.005983229906092</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.022904313680585</v>
+        <v>0.9507547498343721</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034794853115983</v>
+        <v>1.037832239748635</v>
       </c>
       <c r="J10">
-        <v>1.032950648107623</v>
+        <v>1.012980542773303</v>
       </c>
       <c r="K10">
-        <v>1.034497363199871</v>
+        <v>1.020245289125785</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.026397363510594</v>
+        <v>0.9660739543074227</v>
       </c>
       <c r="N10">
-        <v>1.014951651612078</v>
+        <v>1.008009963256322</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025859739087017</v>
+        <v>0.9800519634162117</v>
       </c>
       <c r="D11">
-        <v>1.030517305705898</v>
+        <v>1.003000402314676</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.021787403941967</v>
+        <v>0.9444989064721095</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034586295091216</v>
+        <v>1.036258558188342</v>
       </c>
       <c r="J11">
-        <v>1.032494471102116</v>
+        <v>1.010278812576718</v>
       </c>
       <c r="K11">
-        <v>1.034104854237934</v>
+        <v>1.017865956398907</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.025408008195592</v>
+        <v>0.9605493056592727</v>
       </c>
       <c r="N11">
-        <v>1.014798683387979</v>
+        <v>1.007099609093694</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025602095949878</v>
+        <v>0.9785147309200988</v>
       </c>
       <c r="D12">
-        <v>1.030325264044924</v>
+        <v>1.001874731030894</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.021372305748718</v>
+        <v>0.9421306059591409</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034508488991242</v>
+        <v>1.035661863090178</v>
       </c>
       <c r="J12">
-        <v>1.032324757494965</v>
+        <v>1.009257065521508</v>
       </c>
       <c r="K12">
-        <v>1.033958791972111</v>
+        <v>1.016966102074639</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.025040213082487</v>
+        <v>0.9584573250142435</v>
       </c>
       <c r="N12">
-        <v>1.014741762801651</v>
+        <v>1.006755345380047</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025657369017526</v>
+        <v>0.9788456476992751</v>
       </c>
       <c r="D13">
-        <v>1.030366464236688</v>
+        <v>1.002117014748737</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.021461356203338</v>
+        <v>0.9426407022025594</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03452519399115</v>
+        <v>1.035790420029918</v>
       </c>
       <c r="J13">
-        <v>1.03236117385119</v>
+        <v>1.009477080107186</v>
       </c>
       <c r="K13">
-        <v>1.033990134928134</v>
+        <v>1.017159870172186</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.025119120300309</v>
+        <v>0.9589079269166865</v>
       </c>
       <c r="N13">
-        <v>1.014753977057866</v>
+        <v>1.006829475409049</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025838445710342</v>
+        <v>0.9799254220527289</v>
       </c>
       <c r="D14">
-        <v>1.030501434457336</v>
+        <v>1.002907723142724</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.02175309650736</v>
+        <v>0.9443040766737375</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034579870522881</v>
+        <v>1.03620948808825</v>
       </c>
       <c r="J14">
-        <v>1.032480448024454</v>
+        <v>1.010194734083476</v>
       </c>
       <c r="K14">
-        <v>1.034092786139911</v>
+        <v>1.017791908782318</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.025377612398315</v>
+        <v>0.960377216968636</v>
       </c>
       <c r="N14">
-        <v>1.014793980386111</v>
+        <v>1.007071279611608</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025949990417238</v>
+        <v>0.9805873006905718</v>
       </c>
       <c r="D15">
-        <v>1.030584574749766</v>
+        <v>1.003392517168531</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.021932816807768</v>
+        <v>0.9453228989233002</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034613513672997</v>
+        <v>1.03646605352566</v>
       </c>
       <c r="J15">
-        <v>1.032553901054713</v>
+        <v>1.010634450598315</v>
       </c>
       <c r="K15">
-        <v>1.034155997520498</v>
+        <v>1.018179164375952</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.025536837304604</v>
+        <v>0.9612770998099457</v>
       </c>
       <c r="N15">
-        <v>1.014818614305424</v>
+        <v>1.007219438799348</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026598885423888</v>
+        <v>0.9843892147438065</v>
       </c>
       <c r="D16">
-        <v>1.03106819322015</v>
+        <v>1.006178777864847</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.022978407838022</v>
+        <v>0.9511639040058478</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034808647027964</v>
+        <v>1.037935019538101</v>
       </c>
       <c r="J16">
-        <v>1.032980885435185</v>
+        <v>1.013157369705824</v>
       </c>
       <c r="K16">
-        <v>1.034523375370046</v>
+        <v>1.020401008957298</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.026462981535111</v>
+        <v>0.9664352135603435</v>
       </c>
       <c r="N16">
-        <v>1.014961789425708</v>
+        <v>1.008069547261581</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027005619818844</v>
+        <v>0.9867311302105675</v>
       </c>
       <c r="D17">
-        <v>1.031371296434388</v>
+        <v>1.007896346594225</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.023633883345874</v>
+        <v>0.9547527544586868</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034930447102206</v>
+        <v>1.038835663320492</v>
       </c>
       <c r="J17">
-        <v>1.03324824391874</v>
+        <v>1.014708937348469</v>
       </c>
       <c r="K17">
-        <v>1.034753347636896</v>
+        <v>1.021767326447062</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.027043393973066</v>
+        <v>0.9696035386397778</v>
       </c>
       <c r="N17">
-        <v>1.015051419387944</v>
+        <v>1.00859237374527</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027242753729312</v>
+        <v>0.9880822497336432</v>
       </c>
       <c r="D18">
-        <v>1.031547998881024</v>
+        <v>1.008887694050136</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.024016071491747</v>
+        <v>0.956820265434684</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035001274410683</v>
+        <v>1.039353743893928</v>
       </c>
       <c r="J18">
-        <v>1.033404018126106</v>
+        <v>1.015603181048734</v>
       </c>
       <c r="K18">
-        <v>1.034887316159787</v>
+        <v>1.022554757768855</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.027381749263275</v>
+        <v>0.9714284252254598</v>
       </c>
       <c r="N18">
-        <v>1.015103634348491</v>
+        <v>1.008893708190692</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027323592130589</v>
+        <v>0.9885404760186</v>
       </c>
       <c r="D19">
-        <v>1.031608234192282</v>
+        <v>1.009223975852143</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.024146364384995</v>
+        <v>0.9575209683941238</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035025387980316</v>
+        <v>1.039529188589136</v>
       </c>
       <c r="J19">
-        <v>1.033457104079454</v>
+        <v>1.015906307137971</v>
       </c>
       <c r="K19">
-        <v>1.034932967103756</v>
+        <v>1.022821668781239</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.027497087796886</v>
+        <v>0.972046836305996</v>
       </c>
       <c r="N19">
-        <v>1.015121427347968</v>
+        <v>1.008995853438762</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02696199219303</v>
+        <v>0.9864814168049524</v>
       </c>
       <c r="D20">
-        <v>1.031338785907709</v>
+        <v>1.007713160456042</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.023563571538926</v>
+        <v>0.9543704008736487</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034917401519181</v>
+        <v>1.038739787998209</v>
       </c>
       <c r="J20">
-        <v>1.033219576633701</v>
+        <v>1.014543590647349</v>
       </c>
       <c r="K20">
-        <v>1.03472869142564</v>
+        <v>1.021621725707687</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.026981140869681</v>
+        <v>0.9692660247004442</v>
       </c>
       <c r="N20">
-        <v>1.015041809635633</v>
+        <v>1.008536656934503</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025785127854531</v>
+        <v>0.9796081686528645</v>
       </c>
       <c r="D21">
-        <v>1.030461693117489</v>
+        <v>1.002675379074693</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.021667192636912</v>
+        <v>0.9438155200555219</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034563778995392</v>
+        <v>1.03608642539861</v>
       </c>
       <c r="J21">
-        <v>1.032445332199034</v>
+        <v>1.009983916629182</v>
       </c>
       <c r="K21">
-        <v>1.034062565297802</v>
+        <v>1.017606242233333</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.025301501393028</v>
+        <v>0.9599456785033289</v>
       </c>
       <c r="N21">
-        <v>1.014782203206352</v>
+        <v>1.007000246884037</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025044201029885</v>
+        <v>0.9751394828360723</v>
       </c>
       <c r="D22">
-        <v>1.02990938774961</v>
+        <v>0.9994046937194536</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.020473538866208</v>
+        <v>0.9369188277350776</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034339484324153</v>
+        <v>1.034347341166259</v>
       </c>
       <c r="J22">
-        <v>1.031956975759524</v>
+        <v>1.007010982033761</v>
       </c>
       <c r="K22">
-        <v>1.03364220007288</v>
+        <v>1.014987952975216</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.024243679366145</v>
+        <v>0.9538528183540123</v>
       </c>
       <c r="N22">
-        <v>1.014618391502507</v>
+        <v>1.00599859836017</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025437074656841</v>
+        <v>0.9775230539363637</v>
       </c>
       <c r="D23">
-        <v>1.03020225554458</v>
+        <v>1.001148788733967</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.021106446190878</v>
+        <v>0.94060104650969</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034458573110444</v>
+        <v>1.035276260598581</v>
       </c>
       <c r="J23">
-        <v>1.032216011107096</v>
+        <v>1.008597523268589</v>
       </c>
       <c r="K23">
-        <v>1.033865190600472</v>
+        <v>1.016385237480796</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.024804621117196</v>
+        <v>0.9571060982048538</v>
       </c>
       <c r="N23">
-        <v>1.01470528701378</v>
+        <v>1.006533127351936</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026981705970298</v>
+        <v>0.9865942973900423</v>
       </c>
       <c r="D24">
-        <v>1.03135347630081</v>
+        <v>1.007795966684787</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.023595342847134</v>
+        <v>0.9545432494515672</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034923296925616</v>
+        <v>1.038783132275329</v>
       </c>
       <c r="J24">
-        <v>1.033232530675125</v>
+        <v>1.014618336858015</v>
       </c>
       <c r="K24">
-        <v>1.034739833032299</v>
+        <v>1.021687545747244</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.027009270950861</v>
+        <v>0.9694186039877557</v>
       </c>
       <c r="N24">
-        <v>1.015046152068735</v>
+        <v>1.008561844122436</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028769961354959</v>
+        <v>0.9965422097828341</v>
       </c>
       <c r="D25">
-        <v>1.032685778364954</v>
+        <v>1.015101806794164</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.026478125643688</v>
+        <v>0.969720144533347</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035454088999704</v>
+        <v>1.042570329612124</v>
       </c>
       <c r="J25">
-        <v>1.034405425204348</v>
+        <v>1.021186505351847</v>
       </c>
       <c r="K25">
-        <v>1.035748127033177</v>
+        <v>1.027470124274227</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.029560242027048</v>
+        <v>0.9828074368539615</v>
       </c>
       <c r="N25">
-        <v>1.015439171773438</v>
+        <v>1.010775126382364</v>
       </c>
     </row>
   </sheetData>
